--- a/eg3_adavanced.xlsx
+++ b/eg3_adavanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749754D-5AB9-284B-8AF0-5327E860C9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B66E89-C1C2-3C4E-AA0D-D1E3E84A1AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -4642,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6701,6 +6701,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -17073,8 +17074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg3_adavanced.xlsx
+++ b/eg3_adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B66E89-C1C2-3C4E-AA0D-D1E3E84A1AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE3C12-49C0-0C46-8C77-05424986EFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -4642,7 +4642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -17074,8 +17074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
